--- a/Internfinder-BE/GAO_BackEnd/src/main/resources/target/res.xlsx
+++ b/Internfinder-BE/GAO_BackEnd/src/main/resources/target/res.xlsx
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="16">
   <si>
     <t>${user.dayOfBirth}</t>
   </si>
@@ -72,22 +72,16 @@
     <t/>
   </si>
   <si>
-    <t>Take advantages of sales skills &amp; experience and understanding of market to become a professional Sales Staff and bring a lot value to Customers. From that, I will contribute to development of TOPCV Company.</t>
+    <t xml:space="preserve">Phạm Đức </t>
   </si>
   <si>
-    <t>Trần  Hoàng Anh</t>
+    <t>2005-12-31</t>
   </si>
   <si>
-    <t>21/01/1999</t>
+    <t>ád Tiên phước</t>
   </si>
   <si>
-    <t>0369689258</t>
-  </si>
-  <si>
-    <t>234/4 hoàng văn thái, Hòa Khánh, Đà Nẵng</t>
-  </si>
-  <si>
-    <t>nam</t>
+    <t>Nam</t>
   </si>
 </sst>
 </file>
@@ -1004,7 +998,7 @@
       <c r="N3" s="4"/>
       <c r="O3" s="4"/>
       <c r="P3" s="21" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="Q3" s="21"/>
       <c r="R3" s="21"/>
@@ -1140,7 +1134,7 @@
     </row>
     <row ht="15" r="7" spans="1:100">
       <c r="R7" s="22" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="S7" s="22"/>
       <c r="T7" s="22"/>
@@ -1158,13 +1152,13 @@
       <c r="AF7" s="22"/>
       <c r="AG7" s="22"/>
       <c r="AM7" s="6" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row ht="15" r="8" spans="1:100">
       <c r="A8" s="2"/>
       <c r="R8" s="22" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="S8" s="22"/>
       <c r="T8" s="22"/>
@@ -1184,7 +1178,7 @@
     </row>
     <row ht="15" r="9" spans="1:100">
       <c r="R9" s="22" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="S9" s="22"/>
       <c r="T9" s="22"/>
@@ -1346,7 +1340,7 @@
     <row ht="15.0" r="14" spans="1:100" customHeight="true">
       <c r="A14" s="2"/>
       <c r="C14" s="26" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D14" s="26"/>
       <c r="E14" s="26"/>

--- a/Internfinder-BE/GAO_BackEnd/src/main/resources/target/res.xlsx
+++ b/Internfinder-BE/GAO_BackEnd/src/main/resources/target/res.xlsx
@@ -72,13 +72,13 @@
     <t/>
   </si>
   <si>
-    <t xml:space="preserve">Phạm Đức </t>
+    <t xml:space="preserve">Dat </t>
   </si>
   <si>
     <t>2005-12-31</t>
   </si>
   <si>
-    <t>ád Tiên phước</t>
+    <t>ád 1</t>
   </si>
   <si>
     <t>Nam</t>

--- a/Internfinder-BE/GAO_BackEnd/src/main/resources/target/res.xlsx
+++ b/Internfinder-BE/GAO_BackEnd/src/main/resources/target/res.xlsx
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="29">
   <si>
     <t>${user.dayOfBirth}</t>
   </si>
@@ -97,19 +97,10 @@
     <t/>
   </si>
   <si>
-    <t>dăd</t>
-  </si>
-  <si>
-    <t>dădgergreger</t>
-  </si>
-  <si>
-    <t>gẻgerge</t>
-  </si>
-  <si>
     <t>Phạm Đức Đạt</t>
   </si>
   <si>
-    <t>2005-12-01</t>
+    <t>2005-12-18</t>
   </si>
   <si>
     <t>1313123</t>
@@ -121,22 +112,16 @@
     <t>ád Tiên phước Quảng Nam</t>
   </si>
   <si>
-    <t>ădawdwdawd</t>
-  </si>
-  <si>
-    <t>ưqfwefssefsefsefs</t>
-  </si>
-  <si>
-    <t>dădawdawd</t>
-  </si>
-  <si>
-    <t>Nam</t>
+    <t>123</t>
+  </si>
+  <si>
+    <t>Nữ</t>
   </si>
   <si>
     <t>hamycui2811@gmail.com</t>
   </si>
   <si>
-    <t>Độc thân</t>
+    <t>Đã kết hôn</t>
   </si>
 </sst>
 </file>
@@ -319,7 +304,7 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf applyAlignment="1" applyFill="1" applyFont="1" borderId="0" fillId="2" fontId="8" numFmtId="0" xfId="0">
-      <alignment horizontal="left" vertical="top"/>
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf applyAlignment="1" applyFill="1" applyFont="1" borderId="0" fillId="4" fontId="5" numFmtId="0" xfId="0">
       <alignment horizontal="left" vertical="center"/>
@@ -708,10 +693,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" mc:Ignorable="x14ac">
-  <dimension ref="A1:CW61"/>
+  <dimension ref="A1:CW59"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0" zoomScaleNormal="100">
-      <selection activeCell="U23" sqref="U23:BA30"/>
+    <sheetView tabSelected="1" topLeftCell="A59" workbookViewId="0" zoomScaleNormal="100">
+      <selection activeCell="BP8" sqref="BP8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="1.88671875" defaultRowHeight="13.5"/>
@@ -852,7 +837,7 @@
       <c r="S2" s="4"/>
       <c r="T2" s="7"/>
       <c r="U2" s="17" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="V2" s="17"/>
       <c r="W2" s="17"/>
@@ -970,7 +955,7 @@
       <c r="A5" s="8"/>
       <c r="T5" s="10"/>
       <c r="U5" s="18" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="V5" s="18"/>
       <c r="W5" s="18"/>
@@ -989,7 +974,7 @@
       <c r="AJ5" s="18"/>
       <c r="AK5" s="11"/>
       <c r="AL5" s="18" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="AM5" s="18"/>
       <c r="AN5" s="18"/>
@@ -1012,7 +997,7 @@
     <row customHeight="1" ht="16.8" r="6" spans="1:100">
       <c r="T6" s="10"/>
       <c r="U6" s="18" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="V6" s="18"/>
       <c r="W6" s="18"/>
@@ -1031,7 +1016,7 @@
       <c r="AJ6" s="18"/>
       <c r="AK6" s="11"/>
       <c r="AL6" s="19" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="AM6" s="18"/>
       <c r="AN6" s="18"/>
@@ -1054,7 +1039,7 @@
       <c r="A7" s="8"/>
       <c r="T7" s="10"/>
       <c r="U7" s="18" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="V7" s="18"/>
       <c r="W7" s="18"/>
@@ -1073,7 +1058,7 @@
       <c r="AJ7" s="18"/>
       <c r="AK7" s="11"/>
       <c r="AL7" s="18" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="AM7" s="18"/>
       <c r="AN7" s="18"/>
@@ -1095,7 +1080,7 @@
     <row customHeight="1" ht="18.600000000000001" r="8" spans="1:100">
       <c r="T8" s="10"/>
       <c r="U8" s="18" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="V8" s="18"/>
       <c r="W8" s="18"/>
@@ -1260,9 +1245,7 @@
       <c r="AE13" s="24"/>
     </row>
     <row ht="15.0" r="14" spans="1:100" customHeight="true">
-      <c r="D14" s="20" t="s">
-        <v>20</v>
-      </c>
+      <c r="D14" s="20"/>
       <c r="E14" s="20"/>
       <c r="F14" s="20"/>
       <c r="G14" s="20"/>
@@ -1277,7 +1260,7 @@
       <c r="P14" s="20"/>
       <c r="Q14" s="20"/>
       <c r="U14" s="25" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="V14" s="25"/>
       <c r="W14" s="25"/>
@@ -1315,9 +1298,6 @@
     </row>
     <row ht="15.0" r="15" spans="1:100" customHeight="true">
       <c r="A15" s="8"/>
-      <c r="D15" t="s" s="20">
-        <v>21</v>
-      </c>
       <c r="U15" s="25"/>
       <c r="V15" s="25"/>
       <c r="W15" s="25"/>
@@ -1527,7 +1507,7 @@
       <c r="C22" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="D22" s="0"/>
+      <c r="D22" s="22"/>
       <c r="E22" s="22"/>
       <c r="F22" s="22"/>
       <c r="G22" s="22"/>
@@ -1562,7 +1542,7 @@
       <c r="J23" s="22"/>
       <c r="K23" s="22"/>
       <c r="U23" s="21" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="V23" s="21"/>
       <c r="W23" s="21"/>
@@ -1599,7 +1579,7 @@
       <c r="BZ23" s="14"/>
     </row>
     <row ht="15.0" r="24" spans="1:78" customHeight="true">
-      <c r="D24" s="22"/>
+      <c r="D24" s="20"/>
       <c r="E24" s="20"/>
       <c r="F24" s="20"/>
       <c r="G24" s="20"/>
@@ -1649,9 +1629,6 @@
       <c r="BZ24" s="14"/>
     </row>
     <row ht="15.0" r="25" spans="1:78" customHeight="true">
-      <c r="D25" t="s" s="20">
-        <v>22</v>
-      </c>
       <c r="U25" s="21"/>
       <c r="V25" s="21"/>
       <c r="W25" s="21"/>
@@ -1688,9 +1665,6 @@
       <c r="BZ25" s="14"/>
     </row>
     <row ht="15.0" r="26" spans="1:78" customHeight="true">
-      <c r="D26" t="s" s="20">
-        <v>22</v>
-      </c>
       <c r="U26" s="21"/>
       <c r="V26" s="21"/>
       <c r="W26" s="21"/>
@@ -1831,7 +1805,7 @@
       <c r="AZ29" s="21"/>
       <c r="BA29" s="21"/>
     </row>
-    <row customHeight="true" ht="15.0" r="30" spans="1:78">
+    <row customHeight="true" ht="13.5" r="30" spans="1:78">
       <c r="U30" s="21"/>
       <c r="V30" s="21"/>
       <c r="W30" s="21"/>
@@ -1866,7 +1840,7 @@
       <c r="AZ30" s="21"/>
       <c r="BA30" s="21"/>
     </row>
-    <row r="31" ht="15.0" customHeight="true"/>
+    <row r="31" ht="13.5" customHeight="true"/>
     <row customHeight="true" ht="13.5" r="32" spans="1:78">
       <c r="U32" s="1" t="s">
         <v>8</v>
@@ -1902,7 +1876,7 @@
     </row>
     <row customHeight="true" ht="13.5" r="34" spans="21:59">
       <c r="U34" s="21" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="V34" s="21"/>
       <c r="W34" s="21"/>
@@ -1937,7 +1911,7 @@
       <c r="AZ34" s="21"/>
       <c r="BA34" s="21"/>
     </row>
-    <row customHeight="true" ht="13.5" r="35" spans="21:59">
+    <row customHeight="true" ht="15.6" r="35" spans="21:59">
       <c r="U35" s="21"/>
       <c r="V35" s="21"/>
       <c r="W35" s="21"/>
@@ -2007,7 +1981,7 @@
       <c r="AZ36" s="21"/>
       <c r="BA36" s="21"/>
     </row>
-    <row customHeight="true" ht="15.6" r="37" spans="21:59">
+    <row customHeight="true" ht="13.5" r="37" spans="21:59">
       <c r="U37" s="21"/>
       <c r="V37" s="21"/>
       <c r="W37" s="21"/>
@@ -2749,14 +2723,10 @@
         <v>10</v>
       </c>
     </row>
-    <row r="60" ht="13.5" customHeight="true"/>
-    <row r="61" ht="13.5" customHeight="true"/>
   </sheetData>
   <mergeCells>
     <mergeCell ref="D14:Q14"/>
-    <mergeCell ref="D15:Q15"/>
-    <mergeCell ref="D25:Q25"/>
-    <mergeCell ref="D26:Q26"/>
+    <mergeCell ref="D24:Q24"/>
     <mergeCell ref="C12:K13"/>
     <mergeCell ref="C22:K23"/>
     <mergeCell ref="U2:BA4"/>
